--- a/biology/Microbiologie/Myzozoa/Myzozoa.xlsx
+++ b/biology/Microbiologie/Myzozoa/Myzozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Myzozoa sont  un sous-embranchement de protistes de l’embranchement des Miozoa.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des infra-embranchements, super-classes et classes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (14 décembre 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (14 décembre 2022) :
 Infra-embanchement Apicomplexa
 Super-classe Apicomonada
 Classe Apicomonadea
@@ -554,10 +568,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Myzozoa Cavalier-Smith &amp; E.E.Chao, 2004[1].
-Myzozoa a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Myzozoa Cavalier-Smith &amp; E.E.Chao, 2004.
+Myzozoa a pour synonyme :
 Miozoa</t>
         </is>
       </c>
